--- a/AMBA_BUS/AHB_GEN_202/Input/AHB_config.xlsx
+++ b/AMBA_BUS/AHB_GEN_202/Input/AHB_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Decoder_config" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
   <si>
     <t>AHB_Gen Decoder Setting</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>master_data</t>
-  </si>
-  <si>
-    <t>slave_isnt</t>
   </si>
 </sst>
 </file>
@@ -861,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C51"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,7 +974,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1061,7 +1058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/AMBA_BUS/AHB_GEN_202/Input/AHB_config.xlsx
+++ b/AMBA_BUS/AHB_GEN_202/Input/AHB_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Decoder_config" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>0000_0000</t>
   </si>
   <si>
-    <t>0000_0400</t>
-  </si>
-  <si>
     <t>AHB_Gen Arbiter Setting</t>
   </si>
   <si>
@@ -120,24 +117,12 @@
     <t>slave_peri</t>
   </si>
   <si>
-    <t>0000_011C</t>
-  </si>
-  <si>
     <t>slave_inst</t>
   </si>
   <si>
-    <t>0000_07FF</t>
-  </si>
-  <si>
     <t>slave_data</t>
   </si>
   <si>
-    <t>0000_0800</t>
-  </si>
-  <si>
-    <t>0001_03FF</t>
-  </si>
-  <si>
     <t>master_peri</t>
   </si>
   <si>
@@ -145,6 +130,21 @@
   </si>
   <si>
     <t>master_data</t>
+  </si>
+  <si>
+    <t>0001_0000</t>
+  </si>
+  <si>
+    <t>0001_011C</t>
+  </si>
+  <si>
+    <t>0000_8000</t>
+  </si>
+  <si>
+    <t>0000_FFFF</t>
+  </si>
+  <si>
+    <t>0000_7FFF</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -708,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -721,7 +721,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C17" s="6"/>
     </row>
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,37 +812,37 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -858,7 +858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -871,7 +871,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -880,7 +880,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="11">
         <v>2</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>3</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="11">
         <v>4</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>4</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>4</v>
@@ -928,26 +928,26 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>4</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>4</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>4</v>
@@ -971,15 +971,15 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="11">
         <v>1</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>4</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>4</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>4</v>
@@ -1011,15 +1011,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="11">
         <v>1</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>4</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>4</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>4</v>
@@ -1072,60 +1072,60 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="12">
         <v>0</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="12">
         <v>0</v>
